--- a/APP2_Comparison/appfiles/套餐.xlsx
+++ b/APP2_Comparison/appfiles/套餐.xlsx
@@ -28,10 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Qty.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +219,10 @@
   </si>
   <si>
     <t>conf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,7 +761,7 @@
   <dimension ref="B1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -781,43 +781,43 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="H2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -828,34 +828,34 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -883,10 +883,10 @@
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -913,10 +913,10 @@
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -943,10 +943,10 @@
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -973,10 +973,10 @@
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -1009,10 +1009,10 @@
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -1039,10 +1039,10 @@
     <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1089,10 +1089,10 @@
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -1119,10 +1119,10 @@
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1147,10 +1147,10 @@
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
@@ -1181,10 +1181,10 @@
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1209,10 +1209,10 @@
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1237,10 +1237,10 @@
     <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -1273,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1293,10 +1293,10 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1321,10 +1321,10 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -1351,10 +1351,10 @@
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1379,10 +1379,10 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1407,10 +1407,10 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1435,10 +1435,10 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1463,10 +1463,10 @@
     <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
